--- a/data/trans_bre/P7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,14%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 1,95</t>
+          <t>-7,25; 3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,41</t>
+          <t>-6,62; 4,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,83</t>
+          <t>-9,58; 1,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,67</t>
+          <t>-9,64; 3,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,13</t>
+          <t>-8,74; 4,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,66</t>
+          <t>-7,46; 3,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 0,87</t>
+          <t>-6,95; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,82</t>
+          <t>-10,01; 1,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 3,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; 5,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,83</t>
+          <t>-5,32; 9,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,57</t>
+          <t>-5,05; 11,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 10,63</t>
+          <t>-4,0; 12,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 9,23</t>
+          <t>-5,16; 9,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,47</t>
+          <t>-7,06; 9,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,95</t>
+          <t>-5,51; 11,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 12,57</t>
+          <t>-5,21; 14,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 10,62</t>
+          <t>-4,1; 15,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 11,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 10,77</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,43</t>
+          <t>0,0; 16,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 15,57</t>
+          <t>0,0; 17,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 16,12</t>
+          <t>0,0; 16,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 16,21</t>
+          <t>0,0; 16,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 18,49</t>
+          <t>-8,12; 13,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 18,77</t>
+          <t>0,0; 20,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 19,41</t>
+          <t>0,0; 20,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 19,36</t>
+          <t>0,0; 19,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 19,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 16,02</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,01</t>
+          <t>-3,79; 3,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,31</t>
+          <t>-3,57; 4,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,43</t>
+          <t>-4,2; 4,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,1</t>
+          <t>-4,79; 3,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,31</t>
+          <t>-5,55; 3,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,72</t>
+          <t>-3,96; 4,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,9</t>
+          <t>-3,72; 5,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,5</t>
+          <t>-4,42; 4,36</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 3,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,1%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,31%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,89%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-3,74%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-2,14%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.986653958640483</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5760184382636702</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.319866859462993</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.234528615611819</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.885341933821715</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02095498002830951</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.00622757162250554</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02484276464083371</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.02417588863857293</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.00968416359641956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,25; 3,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 4,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,58; 1,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,64; 3,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-8,74; 4,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 3,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 5,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 1,53</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-10,27; 3,33</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-9,39; 5,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.253816711111768</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.727084893843165</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.562921910760817</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.449605087020736</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-7.056252888558638</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.07456748833937195</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.0497819137166147</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08937471009664874</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.08961696894006081</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.07657941653104325</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.119440413302393</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.41569714218201</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.594046787327211</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.310963169193833</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.597831722496571</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.03420358080901686</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.08472014704881857</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.04016080782795632</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.04886342303307289</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.06361037924248698</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-0,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 9,62</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 11,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 12,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 9,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 9,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 11,19</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 14,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 15,52</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 11,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-7,66; 10,77</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1282197035879729</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.495640039657265</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.23043913774278</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.056635904766801</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1994611816671266</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.001370133065167756</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.02727122801813827</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.03562285675557195</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.02255950579078608</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.002192046154749319</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.318382534607082</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.231984112035686</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.551213354552821</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.600891439497079</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.056470249376188</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.05506060620330146</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.04354641171974651</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03629774751226608</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.04816463799723239</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.06407796688289072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 13,63</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 20,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 20,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,1</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,85</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 16,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.616216922710631</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.01215934730504</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.50181867472402</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.46172819949556</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.05788341423173</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1119061133950157</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1733474308884424</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1790979386494996</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1228924323408297</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1166354367101624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-0,96%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.406680020647657</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.875897581219788</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.432750074906066</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.96368790023922</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.038445300881631</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.03526827757215369</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.02961054475252166</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.03554776673840054</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.03054205004403219</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.02159762265954445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 3,8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 4,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 4,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 3,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 3,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 4,12</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 5,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 4,36</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 3,83</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 4,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.793301913276511</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.0797676006415874</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.9429917076828</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.03865679333581</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.06418591473158</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.95682351551163</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.03797822938354</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2035815150195395</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1768867811723965</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2056147065110655</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.189515792870742</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1646918848323247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.6509108017170639</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.584767844089452</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5549034053510482</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.05358265505515103</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1869466457080082</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.006887011880830005</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01712194762024276</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.005995499720001908</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.0005799431948822271</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.002041004585481939</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.79043254885583</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.266213851696168</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.026389343748813</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.675487754169556</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.499895878863593</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.03960292595489593</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.02376741739653035</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.03184576020318384</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.03883177858470188</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04763579721396256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.796107059876464</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.737168927384377</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.621557948730693</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.731469980511866</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.707022540365887</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.04118815396542365</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.0763746147583249</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06256950556314991</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05360677897041588</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.05358056552406381</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
